--- a/database/relatorio/PE 90004-2024/EVO_COMERCIO_DE_PRODUTOS_ODONTOLOGICOS_LTDA/relacao_itens.xlsx
+++ b/database/relatorio/PE 90004-2024/EVO_COMERCIO_DE_PRODUTOS_ODONTOLOGICOS_LTDA/relacao_itens.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,148 +446,233 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Isolante - uso odontológico, composição básica alginato de sódio e água, aspecto físico líquido incolor, aplicação isolante de modelos, tipo uso odontológico, características adicionais secagem rápida e embalagem inquebrável, com tampa</t>
+          <t>Isolante - uso odontológico, composição básica alginato de sódio e água, aspecto físico líquido incolor, aplicação isolante de modelos, tipo uso odontológico, características adicionais secagem rápida e embalagem inquebrável, com tampa</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 4.0</t>
+          <t>UF: Frasco 1,00 L</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 43.5</t>
+          <t>Marca:  EVOFILM</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 174.0</t>
+          <t>Modelo:  ISOLANTE RESINA ACRÍLICA 1000ml</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 4</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 43,50</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 174,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Item: 127 - RESINA ACRÍLICA USO ODONTOLÓGICO (390458)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Descrição Detalhada: Resina acrílica - uso odontológico, tipo auto polimerizante - rápida, aspecto físico pó, processo fabricação polimerização por suspensão, cor vermelha, características adicionais margens mais precisas, queima limpa</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 4.0</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 154.95</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 619.8</t>
+          <t>Resina acrílica - uso odontológico, tipo auto polimerizante - rápida, aspecto físico pó, processo fabricação polimerização por suspensão, cor vermelha, características adicionais margens mais precisas, queima limpa</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Item: 128 - RESINA ACRÍLICA USO ODONTOLÓGICO (390456)</t>
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>UF: Frasco 100,00 G</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  EVOLAY PATTERN</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  RESINA ACRÍLICA VERMELHA 50g</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Resina acrílica, tipo auto polimerizável, aspecto físico líquido frasco 250 ml</t>
+          <t>Quantidade: 4</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 154,95</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 619,80</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>Quantidade: 12.0</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 44.2</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 530.4000000000001</t>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Item: 128 - RESINA ACRÍLICA USO ODONTOLÓGICO (390456)</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Item: 129 - RESINA ACRÍLICA USO ODONTOLÓGICO (390456)</t>
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Resina acrílica, tipo auto polimerizável, aspecto físico líquido frasco 250 ml</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Resina acrílica uso odontológico, tipo: auto polimerizável, aspecto físico: líquido frasco 250ml</t>
+          <t>UF: Frasco 250,00 ML</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  AUTODEN</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  RESINA ACRÍLICA AUTOPOLIMERIZÁVEL 250ml</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 10.0</t>
+          <t>Quantidade: 12</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 37.98</t>
+          <t>Valor Unitário: R$ 44,20</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 379.79999999999995</t>
+          <t>Valor Total: R$ 530,40</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Item: 130 - RESINA ACRÍLICA USO ODONTOLÓGICO (390456)</t>
+          <t>Item: 129 - RESINA ACRÍLICA USO ODONTOLÓGICO (390456)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Resina acrílica uso odontológico, tipo: auto polimerizável, aspecto físico: líquido frasco 500ml</t>
+          <t>Resina acrílica uso odontológico, tipo: auto polimerizável, aspecto físico: líquido frasco 250ml</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 10.0</t>
+          <t>UF: Frasco 250,00 ML</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 78.5</t>
+          <t>Marca:  AUTODEN</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 785.0</t>
+          <t>Modelo:  RESINA ACRÍLICA AUTOPOLIMERIZÁVEL 250ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 10</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 37,98</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 379,80</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Item: 130 - RESINA ACRÍLICA USO ODONTOLÓGICO (390456)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>Resina acrílica uso odontológico, tipo: auto polimerizável, aspecto físico: líquido frasco 500ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>UF: Frasco 500,00 ML</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  AUTODEN</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  RESINA ACRÍLICA AUTOPOLIMERIZÁVEL 500ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 10</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 78,50</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 785,00</t>
         </is>
       </c>
     </row>
@@ -595,13 +680,13 @@
   <mergeCells count="10">
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A11:C11"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A8:C8"/>
     <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A18:C18"/>
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/database/relatorio/PE 90004-2024/EVO_COMERCIO_DE_PRODUTOS_ODONTOLOGICOS_LTDA/relacao_itens.xlsx
+++ b/database/relatorio/PE 90004-2024/EVO_COMERCIO_DE_PRODUTOS_ODONTOLOGICOS_LTDA/relacao_itens.xlsx
@@ -439,7 +439,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Item: 38 - ISOLANTE - USO ODONTOLÓGICO (428472)</t>
+          <t>Item 38 - ISOLANTE - USO ODONTOLÓGICO (428472)</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Item: 127 - RESINA ACRÍLICA USO ODONTOLÓGICO (390458)</t>
+          <t>Item 127 - RESINA ACRÍLICA USO ODONTOLÓGICO (390458)</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Item: 128 - RESINA ACRÍLICA USO ODONTOLÓGICO (390456)</t>
+          <t>Item 128 - RESINA ACRÍLICA USO ODONTOLÓGICO (390456)</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Item: 129 - RESINA ACRÍLICA USO ODONTOLÓGICO (390456)</t>
+          <t>Item 129 - RESINA ACRÍLICA USO ODONTOLÓGICO (390456)</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Item: 130 - RESINA ACRÍLICA USO ODONTOLÓGICO (390456)</t>
+          <t>Item 130 - RESINA ACRÍLICA USO ODONTOLÓGICO (390456)</t>
         </is>
       </c>
     </row>
